--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.0079365</v>
+        <v>27.528014</v>
       </c>
       <c r="H2">
-        <v>110.015873</v>
+        <v>55.056028</v>
       </c>
       <c r="I2">
-        <v>0.1525927687876679</v>
+        <v>0.08850534804739356</v>
       </c>
       <c r="J2">
-        <v>0.1111405712358186</v>
+        <v>0.06352367462320901</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.825016</v>
+        <v>10.942618</v>
       </c>
       <c r="N2">
-        <v>23.650032</v>
+        <v>21.885236</v>
       </c>
       <c r="O2">
-        <v>0.3100662877561242</v>
+        <v>0.2962436306614207</v>
       </c>
       <c r="P2">
-        <v>0.2453710146341254</v>
+        <v>0.2354156267283191</v>
       </c>
       <c r="Q2">
-        <v>650.469729239484</v>
+        <v>301.228541500652</v>
       </c>
       <c r="R2">
-        <v>2601.878916957936</v>
+        <v>1204.914166002608</v>
       </c>
       <c r="S2">
-        <v>0.04731387335642076</v>
+        <v>0.02621914563851255</v>
       </c>
       <c r="T2">
-        <v>0.02727067473114909</v>
+        <v>0.01495446567350857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0079365</v>
+        <v>27.528014</v>
       </c>
       <c r="H3">
-        <v>110.015873</v>
+        <v>55.056028</v>
       </c>
       <c r="I3">
-        <v>0.1525927687876679</v>
+        <v>0.08850534804739356</v>
       </c>
       <c r="J3">
-        <v>0.1111405712358186</v>
+        <v>0.06352367462320901</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.888139</v>
       </c>
       <c r="O3">
-        <v>0.1825707950518889</v>
+        <v>0.1884977962653428</v>
       </c>
       <c r="P3">
-        <v>0.2167161490626586</v>
+        <v>0.2246900300217573</v>
       </c>
       <c r="Q3">
-        <v>383.0044745717245</v>
+        <v>191.669660941982</v>
       </c>
       <c r="R3">
-        <v>2298.026847430347</v>
+        <v>1150.017965651892</v>
       </c>
       <c r="S3">
-        <v>0.02785898311673359</v>
+        <v>0.01668306306463085</v>
       </c>
       <c r="T3">
-        <v>0.02408595660285068</v>
+        <v>0.01427313635818118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0079365</v>
+        <v>27.528014</v>
       </c>
       <c r="H4">
-        <v>110.015873</v>
+        <v>55.056028</v>
       </c>
       <c r="I4">
-        <v>0.1525927687876679</v>
+        <v>0.08850534804739356</v>
       </c>
       <c r="J4">
-        <v>0.1111405712358186</v>
+        <v>0.06352367462320901</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.740687</v>
+        <v>3.908275666666666</v>
       </c>
       <c r="N4">
-        <v>11.222061</v>
+        <v>11.724827</v>
       </c>
       <c r="O4">
-        <v>0.09808535834096063</v>
+        <v>0.1058066518559834</v>
       </c>
       <c r="P4">
-        <v>0.1164297999197653</v>
+        <v>0.1261218977253029</v>
       </c>
       <c r="Q4">
-        <v>205.7674729623755</v>
+        <v>107.5870672678593</v>
       </c>
       <c r="R4">
-        <v>1234.604837774253</v>
+        <v>645.522403607156</v>
       </c>
       <c r="S4">
-        <v>0.01496711640677776</v>
+        <v>0.009364454548243212</v>
       </c>
       <c r="T4">
-        <v>0.01294007447195478</v>
+        <v>0.008011726393963785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0079365</v>
+        <v>27.528014</v>
       </c>
       <c r="H5">
-        <v>110.015873</v>
+        <v>55.056028</v>
       </c>
       <c r="I5">
-        <v>0.1525927687876679</v>
+        <v>0.08850534804739356</v>
       </c>
       <c r="J5">
-        <v>0.1111405712358186</v>
+        <v>0.06352367462320901</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.201375000000001</v>
+        <v>6.906841</v>
       </c>
       <c r="N5">
-        <v>12.40275</v>
+        <v>13.813682</v>
       </c>
       <c r="O5">
-        <v>0.1626075876120282</v>
+        <v>0.1869852035629095</v>
       </c>
       <c r="P5">
-        <v>0.1286795447783495</v>
+        <v>0.1485913428329354</v>
       </c>
       <c r="Q5">
-        <v>341.1248422126876</v>
+        <v>190.131615743774</v>
       </c>
       <c r="R5">
-        <v>1364.49936885075</v>
+        <v>760.526462975096</v>
       </c>
       <c r="S5">
-        <v>0.02481274201960267</v>
+        <v>0.01654919052104804</v>
       </c>
       <c r="T5">
-        <v>0.01430151811303086</v>
+        <v>0.00943906811394509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.0079365</v>
+        <v>27.528014</v>
       </c>
       <c r="H6">
-        <v>110.015873</v>
+        <v>55.056028</v>
       </c>
       <c r="I6">
-        <v>0.1525927687876679</v>
+        <v>0.08850534804739356</v>
       </c>
       <c r="J6">
-        <v>0.1111405712358186</v>
+        <v>0.06352367462320901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.770838333333334</v>
+        <v>3.706344</v>
       </c>
       <c r="N6">
-        <v>20.312515</v>
+        <v>11.119032</v>
       </c>
       <c r="O6">
-        <v>0.1775396081505116</v>
+        <v>0.1003398641020067</v>
       </c>
       <c r="P6">
-        <v>0.2107440030237968</v>
+        <v>0.1196054676720066</v>
       </c>
       <c r="Q6">
-        <v>372.4498450917658</v>
+        <v>102.028289520816</v>
       </c>
       <c r="R6">
-        <v>2234.699070550595</v>
+        <v>612.169737124896</v>
       </c>
       <c r="S6">
-        <v>0.02709126037716417</v>
+        <v>0.008880614595376276</v>
       </c>
       <c r="T6">
-        <v>0.02342220888058785</v>
+        <v>0.007597778811553293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.0079365</v>
+        <v>27.528014</v>
       </c>
       <c r="H7">
-        <v>110.015873</v>
+        <v>55.056028</v>
       </c>
       <c r="I7">
-        <v>0.1525927687876679</v>
+        <v>0.08850534804739356</v>
       </c>
       <c r="J7">
-        <v>0.1111405712358186</v>
+        <v>0.06352367462320901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.636428666666667</v>
+        <v>4.511109666666667</v>
       </c>
       <c r="N7">
-        <v>7.909286000000001</v>
+        <v>13.533329</v>
       </c>
       <c r="O7">
-        <v>0.06913036308848644</v>
+        <v>0.1221268535523368</v>
       </c>
       <c r="P7">
-        <v>0.08205948858130438</v>
+        <v>0.1455756350196788</v>
       </c>
       <c r="Q7">
-        <v>145.0245006827797</v>
+        <v>124.1818900595353</v>
       </c>
       <c r="R7">
-        <v>870.1470040966781</v>
+        <v>745.0913403572119</v>
       </c>
       <c r="S7">
-        <v>0.01054879351096894</v>
+        <v>0.01080887967958263</v>
       </c>
       <c r="T7">
-        <v>0.009120138436245298</v>
+        <v>0.009247499272057109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>732.711456</v>
       </c>
       <c r="I8">
-        <v>0.677517202713003</v>
+        <v>0.7852471356583939</v>
       </c>
       <c r="J8">
-        <v>0.7402020049494888</v>
+        <v>0.8454028707563453</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.825016</v>
+        <v>10.942618</v>
       </c>
       <c r="N8">
-        <v>23.650032</v>
+        <v>21.885236</v>
       </c>
       <c r="O8">
-        <v>0.3100662877561242</v>
+        <v>0.2962436306614207</v>
       </c>
       <c r="P8">
-        <v>0.2453710146341254</v>
+        <v>0.2354156267283191</v>
       </c>
       <c r="Q8">
-        <v>2888.108230194432</v>
+        <v>2672.593855743936</v>
       </c>
       <c r="R8">
-        <v>17328.64938116659</v>
+        <v>16035.56313446361</v>
       </c>
       <c r="S8">
-        <v>0.2100752439361343</v>
+        <v>0.2326244624339237</v>
       </c>
       <c r="T8">
-        <v>0.18162411698867</v>
+        <v>0.1990210466570252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>732.711456</v>
       </c>
       <c r="I9">
-        <v>0.677517202713003</v>
+        <v>0.7852471356583939</v>
       </c>
       <c r="J9">
-        <v>0.7402020049494888</v>
+        <v>0.8454028707563453</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>20.888139</v>
       </c>
       <c r="O9">
-        <v>0.1825707950518889</v>
+        <v>0.1884977962653428</v>
       </c>
       <c r="P9">
-        <v>0.2167161490626586</v>
+        <v>0.2246900300217573</v>
       </c>
       <c r="Q9">
         <v>1700.553193313376</v>
@@ -1013,10 +1013,10 @@
         <v>15304.97873982039</v>
       </c>
       <c r="S9">
-        <v>0.1236948543606447</v>
+        <v>0.1480173545952799</v>
       </c>
       <c r="T9">
-        <v>0.1604137280411122</v>
+        <v>0.1899535964107231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>732.711456</v>
       </c>
       <c r="I10">
-        <v>0.677517202713003</v>
+        <v>0.7852471356583939</v>
       </c>
       <c r="J10">
-        <v>0.7402020049494888</v>
+        <v>0.8454028707563453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.740687</v>
+        <v>3.908275666666666</v>
       </c>
       <c r="N10">
-        <v>11.222061</v>
+        <v>11.724827</v>
       </c>
       <c r="O10">
-        <v>0.09808535834096063</v>
+        <v>0.1058066518559834</v>
       </c>
       <c r="P10">
-        <v>0.1164297999197653</v>
+        <v>0.1261218977253029</v>
       </c>
       <c r="Q10">
-        <v>913.614739403424</v>
+        <v>954.546118057568</v>
       </c>
       <c r="R10">
-        <v>8222.532654630815</v>
+        <v>8590.915062518112</v>
       </c>
       <c r="S10">
-        <v>0.06645451761027016</v>
+        <v>0.08308437030351587</v>
       </c>
       <c r="T10">
-        <v>0.08618157133647815</v>
+        <v>0.1066238144022092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>732.711456</v>
       </c>
       <c r="I11">
-        <v>0.677517202713003</v>
+        <v>0.7852471356583939</v>
       </c>
       <c r="J11">
-        <v>0.7402020049494888</v>
+        <v>0.8454028707563453</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.201375000000001</v>
+        <v>6.906841</v>
       </c>
       <c r="N11">
-        <v>12.40275</v>
+        <v>13.813682</v>
       </c>
       <c r="O11">
-        <v>0.1626075876120282</v>
+        <v>0.1869852035629095</v>
       </c>
       <c r="P11">
-        <v>0.1286795447783495</v>
+        <v>0.1485913428329354</v>
       </c>
       <c r="Q11">
-        <v>1514.606168484</v>
+        <v>1686.907175156832</v>
       </c>
       <c r="R11">
-        <v>9087.637010904</v>
+        <v>10121.44305094099</v>
       </c>
       <c r="S11">
-        <v>0.1101694378988109</v>
+        <v>0.1468295955082764</v>
       </c>
       <c r="T11">
-        <v>0.09524885704092183</v>
+        <v>0.1256195478005039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>732.711456</v>
       </c>
       <c r="I12">
-        <v>0.677517202713003</v>
+        <v>0.7852471356583939</v>
       </c>
       <c r="J12">
-        <v>0.7402020049494888</v>
+        <v>0.8454028707563453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.770838333333334</v>
+        <v>3.706344</v>
       </c>
       <c r="N12">
-        <v>20.312515</v>
+        <v>11.119032</v>
       </c>
       <c r="O12">
-        <v>0.1775396081505116</v>
+        <v>0.1003398641020067</v>
       </c>
       <c r="P12">
-        <v>0.2107440030237968</v>
+        <v>0.1196054676720066</v>
       </c>
       <c r="Q12">
-        <v>1653.69027118576</v>
+        <v>905.2269028922881</v>
       </c>
       <c r="R12">
-        <v>14883.21244067184</v>
+        <v>8147.042126030592</v>
       </c>
       <c r="S12">
-        <v>0.1202861386848973</v>
+        <v>0.07879159087845328</v>
       </c>
       <c r="T12">
-        <v>0.1559931335692956</v>
+        <v>0.1011148057280696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>732.711456</v>
       </c>
       <c r="I13">
-        <v>0.677517202713003</v>
+        <v>0.7852471356583939</v>
       </c>
       <c r="J13">
-        <v>0.7402020049494888</v>
+        <v>0.8454028707563453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.636428666666667</v>
+        <v>4.511109666666667</v>
       </c>
       <c r="N13">
-        <v>7.909286000000001</v>
+        <v>13.533329</v>
       </c>
       <c r="O13">
-        <v>0.06913036308848644</v>
+        <v>0.1221268535523368</v>
       </c>
       <c r="P13">
-        <v>0.08205948858130438</v>
+        <v>0.1455756350196788</v>
       </c>
       <c r="Q13">
-        <v>643.913828997824</v>
+        <v>1101.780577346336</v>
       </c>
       <c r="R13">
-        <v>5795.224460980417</v>
+        <v>9916.025196117023</v>
       </c>
       <c r="S13">
-        <v>0.04683701022224557</v>
+        <v>0.09589976193894463</v>
       </c>
       <c r="T13">
-        <v>0.06074059797301119</v>
+        <v>0.1230700597578144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.232137</v>
+        <v>0.07108566666666666</v>
       </c>
       <c r="H14">
-        <v>0.696411</v>
+        <v>0.213257</v>
       </c>
       <c r="I14">
-        <v>0.0006439512154407548</v>
+        <v>0.0002285476049784897</v>
       </c>
       <c r="J14">
-        <v>0.0007035304474192341</v>
+        <v>0.0002460560409320063</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.825016</v>
+        <v>10.942618</v>
       </c>
       <c r="N14">
-        <v>23.650032</v>
+        <v>21.885236</v>
       </c>
       <c r="O14">
-        <v>0.3100662877561242</v>
+        <v>0.2962436306614207</v>
       </c>
       <c r="P14">
-        <v>0.2453710146341254</v>
+        <v>0.2354156267283191</v>
       </c>
       <c r="Q14">
-        <v>2.745023739192</v>
+        <v>0.7778632956086665</v>
       </c>
       <c r="R14">
-        <v>16.470142435152</v>
+        <v>4.667179773651999</v>
       </c>
       <c r="S14">
-        <v>0.000199667562867759</v>
+        <v>6.770577227779998E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001726259797092577</v>
+        <v>5.792543708629719E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.232137</v>
+        <v>0.07108566666666666</v>
       </c>
       <c r="H15">
-        <v>0.696411</v>
+        <v>0.213257</v>
       </c>
       <c r="I15">
-        <v>0.0006439512154407548</v>
+        <v>0.0002285476049784897</v>
       </c>
       <c r="J15">
-        <v>0.0007035304474192341</v>
+        <v>0.0002460560409320063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.888139</v>
       </c>
       <c r="O15">
-        <v>0.1825707950518889</v>
+        <v>0.1884977962653428</v>
       </c>
       <c r="P15">
-        <v>0.2167161490626586</v>
+        <v>0.2246900300217573</v>
       </c>
       <c r="Q15">
-        <v>1.616303307681</v>
+        <v>0.4949490954136667</v>
       </c>
       <c r="R15">
-        <v>14.546729769129</v>
+        <v>4.454541858723</v>
       </c>
       <c r="S15">
-        <v>0.0001175666853776488</v>
+        <v>4.30807198801674E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001524664093130256</v>
+        <v>5.528633922404725E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.232137</v>
+        <v>0.07108566666666666</v>
       </c>
       <c r="H16">
-        <v>0.696411</v>
+        <v>0.213257</v>
       </c>
       <c r="I16">
-        <v>0.0006439512154407548</v>
+        <v>0.0002285476049784897</v>
       </c>
       <c r="J16">
-        <v>0.0007035304474192341</v>
+        <v>0.0002460560409320063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.740687</v>
+        <v>3.908275666666666</v>
       </c>
       <c r="N16">
-        <v>11.222061</v>
+        <v>11.724827</v>
       </c>
       <c r="O16">
-        <v>0.09808535834096063</v>
+        <v>0.1058066518559834</v>
       </c>
       <c r="P16">
-        <v>0.1164297999197653</v>
+        <v>0.1261218977253029</v>
       </c>
       <c r="Q16">
-        <v>0.868351858119</v>
+        <v>0.2778223812821111</v>
       </c>
       <c r="R16">
-        <v>7.815166723071</v>
+        <v>2.500401431539</v>
       </c>
       <c r="S16">
-        <v>6.316218572060357E-05</v>
+        <v>2.418185687247789E-05</v>
       </c>
       <c r="T16">
-        <v>8.191190923048442E-05</v>
+        <v>3.103305482911944E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.232137</v>
+        <v>0.07108566666666666</v>
       </c>
       <c r="H17">
-        <v>0.696411</v>
+        <v>0.213257</v>
       </c>
       <c r="I17">
-        <v>0.0006439512154407548</v>
+        <v>0.0002285476049784897</v>
       </c>
       <c r="J17">
-        <v>0.0007035304474192341</v>
+        <v>0.0002460560409320063</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.201375000000001</v>
+        <v>6.906841</v>
       </c>
       <c r="N17">
-        <v>12.40275</v>
+        <v>13.813682</v>
       </c>
       <c r="O17">
-        <v>0.1626075876120282</v>
+        <v>0.1869852035629095</v>
       </c>
       <c r="P17">
-        <v>0.1286795447783495</v>
+        <v>0.1485913428329354</v>
       </c>
       <c r="Q17">
-        <v>1.439568588375</v>
+        <v>0.4909773970456666</v>
       </c>
       <c r="R17">
-        <v>8.637411530250001</v>
+        <v>2.945864382274</v>
       </c>
       <c r="S17">
-        <v>0.0001047113536826546</v>
+        <v>4.273502044071833E-05</v>
       </c>
       <c r="T17">
-        <v>9.052997771161559E-05</v>
+        <v>3.656179753424254E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.232137</v>
+        <v>0.07108566666666666</v>
       </c>
       <c r="H18">
-        <v>0.696411</v>
+        <v>0.213257</v>
       </c>
       <c r="I18">
-        <v>0.0006439512154407548</v>
+        <v>0.0002285476049784897</v>
       </c>
       <c r="J18">
-        <v>0.0007035304474192341</v>
+        <v>0.0002460560409320063</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.770838333333334</v>
+        <v>3.706344</v>
       </c>
       <c r="N18">
-        <v>20.312515</v>
+        <v>11.119032</v>
       </c>
       <c r="O18">
-        <v>0.1775396081505116</v>
+        <v>0.1003398641020067</v>
       </c>
       <c r="P18">
-        <v>0.2107440030237968</v>
+        <v>0.1196054676720066</v>
       </c>
       <c r="Q18">
-        <v>1.571762098185</v>
+        <v>0.2634679341359999</v>
       </c>
       <c r="R18">
-        <v>14.145858883665</v>
+        <v>2.371211407224</v>
       </c>
       <c r="S18">
-        <v>0.0001143268464573973</v>
+        <v>2.293243562438078E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001482648227382522</v>
+        <v>2.942964784919501E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.232137</v>
+        <v>0.07108566666666666</v>
       </c>
       <c r="H19">
-        <v>0.696411</v>
+        <v>0.213257</v>
       </c>
       <c r="I19">
-        <v>0.0006439512154407548</v>
+        <v>0.0002285476049784897</v>
       </c>
       <c r="J19">
-        <v>0.0007035304474192341</v>
+        <v>0.0002460560409320063</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.636428666666667</v>
+        <v>4.511109666666667</v>
       </c>
       <c r="N19">
-        <v>7.909286000000001</v>
+        <v>13.533329</v>
       </c>
       <c r="O19">
-        <v>0.06913036308848644</v>
+        <v>0.1221268535523368</v>
       </c>
       <c r="P19">
-        <v>0.08205948858130438</v>
+        <v>0.1455756350196788</v>
       </c>
       <c r="Q19">
-        <v>0.612012641394</v>
+        <v>0.3206752380614444</v>
       </c>
       <c r="R19">
-        <v>5.508113772546</v>
+        <v>2.886077142553</v>
       </c>
       <c r="S19">
-        <v>4.451658133469153E-05</v>
+        <v>2.791179988294534E-05</v>
       </c>
       <c r="T19">
-        <v>5.77313487165986E-05</v>
+        <v>3.58197644091049E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.5771285</v>
+        <v>38.867684</v>
       </c>
       <c r="H20">
-        <v>73.154257</v>
+        <v>77.73536799999999</v>
       </c>
       <c r="I20">
-        <v>0.1014654551187776</v>
+        <v>0.124963533519567</v>
       </c>
       <c r="J20">
-        <v>0.07390211693645224</v>
+        <v>0.08969110927412732</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.825016</v>
+        <v>10.942618</v>
       </c>
       <c r="N20">
-        <v>23.650032</v>
+        <v>21.885236</v>
       </c>
       <c r="O20">
-        <v>0.3100662877561242</v>
+        <v>0.2962436306614207</v>
       </c>
       <c r="P20">
-        <v>0.2453710146341254</v>
+        <v>0.2354156267283191</v>
       </c>
       <c r="Q20">
-        <v>432.525129746556</v>
+        <v>425.3142185567119</v>
       </c>
       <c r="R20">
-        <v>1730.100518986224</v>
+        <v>1701.256874226848</v>
       </c>
       <c r="S20">
-        <v>0.031461017004165</v>
+        <v>0.03701965087011667</v>
       </c>
       <c r="T20">
-        <v>0.01813343741630707</v>
+        <v>0.02111468870172683</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.5771285</v>
+        <v>38.867684</v>
       </c>
       <c r="H21">
-        <v>73.154257</v>
+        <v>77.73536799999999</v>
       </c>
       <c r="I21">
-        <v>0.1014654551187776</v>
+        <v>0.124963533519567</v>
       </c>
       <c r="J21">
-        <v>0.07390211693645224</v>
+        <v>0.08969110927412732</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>20.888139</v>
       </c>
       <c r="O21">
-        <v>0.1825707950518889</v>
+        <v>0.1884977962653428</v>
       </c>
       <c r="P21">
-        <v>0.2167161490626586</v>
+        <v>0.2246900300217573</v>
       </c>
       <c r="Q21">
-        <v>254.6760481096205</v>
+        <v>270.624528666692</v>
       </c>
       <c r="R21">
-        <v>1528.056288657723</v>
+        <v>1623.747172000152</v>
       </c>
       <c r="S21">
-        <v>0.01852462881133697</v>
+        <v>0.02355535068196868</v>
       </c>
       <c r="T21">
-        <v>0.01601578219004621</v>
+        <v>0.02015269803548839</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.5771285</v>
+        <v>38.867684</v>
       </c>
       <c r="H22">
-        <v>73.154257</v>
+        <v>77.73536799999999</v>
       </c>
       <c r="I22">
-        <v>0.1014654551187776</v>
+        <v>0.124963533519567</v>
       </c>
       <c r="J22">
-        <v>0.07390211693645224</v>
+        <v>0.08969110927412732</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.740687</v>
+        <v>3.908275666666666</v>
       </c>
       <c r="N22">
-        <v>11.222061</v>
+        <v>11.724827</v>
       </c>
       <c r="O22">
-        <v>0.09808535834096063</v>
+        <v>0.1058066518559834</v>
       </c>
       <c r="P22">
-        <v>0.1164297999197653</v>
+        <v>0.1261218977253029</v>
       </c>
       <c r="Q22">
-        <v>136.8235890772795</v>
+        <v>151.9056235968893</v>
       </c>
       <c r="R22">
-        <v>820.941534463677</v>
+        <v>911.4337415813359</v>
       </c>
       <c r="S22">
-        <v>0.009952275524553958</v>
+        <v>0.01322197308579834</v>
       </c>
       <c r="T22">
-        <v>0.008604408688558236</v>
+        <v>0.01131201291074045</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.5771285</v>
+        <v>38.867684</v>
       </c>
       <c r="H23">
-        <v>73.154257</v>
+        <v>77.73536799999999</v>
       </c>
       <c r="I23">
-        <v>0.1014654551187776</v>
+        <v>0.124963533519567</v>
       </c>
       <c r="J23">
-        <v>0.07390211693645224</v>
+        <v>0.08969110927412732</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.201375000000001</v>
+        <v>6.906841</v>
       </c>
       <c r="N23">
-        <v>12.40275</v>
+        <v>13.813682</v>
       </c>
       <c r="O23">
-        <v>0.1626075876120282</v>
+        <v>0.1869852035629095</v>
       </c>
       <c r="P23">
-        <v>0.1286795447783495</v>
+        <v>0.1485913428329354</v>
       </c>
       <c r="Q23">
-        <v>226.8284902516875</v>
+        <v>268.452913426244</v>
       </c>
       <c r="R23">
-        <v>907.3139610067501</v>
+        <v>1073.811653704976</v>
       </c>
       <c r="S23">
-        <v>0.01649905288282094</v>
+        <v>0.0233663317530967</v>
       </c>
       <c r="T23">
-        <v>0.009509690765539027</v>
+        <v>0.01332732236721812</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.5771285</v>
+        <v>38.867684</v>
       </c>
       <c r="H24">
-        <v>73.154257</v>
+        <v>77.73536799999999</v>
       </c>
       <c r="I24">
-        <v>0.1014654551187776</v>
+        <v>0.124963533519567</v>
       </c>
       <c r="J24">
-        <v>0.07390211693645224</v>
+        <v>0.08969110927412732</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.770838333333334</v>
+        <v>3.706344</v>
       </c>
       <c r="N24">
-        <v>20.312515</v>
+        <v>11.119032</v>
       </c>
       <c r="O24">
-        <v>0.1775396081505116</v>
+        <v>0.1003398641020067</v>
       </c>
       <c r="P24">
-        <v>0.2107440030237968</v>
+        <v>0.1196054676720066</v>
       </c>
       <c r="Q24">
-        <v>247.6578237710592</v>
+        <v>144.057007387296</v>
       </c>
       <c r="R24">
-        <v>1485.946942626355</v>
+        <v>864.342044323776</v>
       </c>
       <c r="S24">
-        <v>0.01801413714260109</v>
+        <v>0.01253882397105992</v>
       </c>
       <c r="T24">
-        <v>0.01557442795512068</v>
+        <v>0.01072754707075305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.5771285</v>
+        <v>38.867684</v>
       </c>
       <c r="H25">
-        <v>73.154257</v>
+        <v>77.73536799999999</v>
       </c>
       <c r="I25">
-        <v>0.1014654551187776</v>
+        <v>0.124963533519567</v>
       </c>
       <c r="J25">
-        <v>0.07390211693645224</v>
+        <v>0.08969110927412732</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.636428666666667</v>
+        <v>4.511109666666667</v>
       </c>
       <c r="N25">
-        <v>7.909286000000001</v>
+        <v>13.533329</v>
       </c>
       <c r="O25">
-        <v>0.06913036308848644</v>
+        <v>0.1221268535523368</v>
       </c>
       <c r="P25">
-        <v>0.08205948858130438</v>
+        <v>0.1455756350196788</v>
       </c>
       <c r="Q25">
-        <v>96.43299012175034</v>
+        <v>175.3363850133453</v>
       </c>
       <c r="R25">
-        <v>578.597940730502</v>
+        <v>1052.018310080072</v>
       </c>
       <c r="S25">
-        <v>0.007014343753299619</v>
+        <v>0.01526140315752669</v>
       </c>
       <c r="T25">
-        <v>0.006064369920881023</v>
+        <v>0.01305684018820049</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>24.068887</v>
+        <v>0.2840073333333333</v>
       </c>
       <c r="H26">
-        <v>72.206661</v>
+        <v>0.8520220000000001</v>
       </c>
       <c r="I26">
-        <v>0.06676742198768909</v>
+        <v>0.0009131122893456384</v>
       </c>
       <c r="J26">
-        <v>0.07294483361115629</v>
+        <v>0.0009830634403886853</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.825016</v>
+        <v>10.942618</v>
       </c>
       <c r="N26">
-        <v>23.650032</v>
+        <v>21.885236</v>
       </c>
       <c r="O26">
-        <v>0.3100662877561242</v>
+        <v>0.2962436306614207</v>
       </c>
       <c r="P26">
-        <v>0.2453710146341254</v>
+        <v>0.2354156267283191</v>
       </c>
       <c r="Q26">
-        <v>284.614973877192</v>
+        <v>3.107783757865333</v>
       </c>
       <c r="R26">
-        <v>1707.689843263152</v>
+        <v>18.646702547192</v>
       </c>
       <c r="S26">
-        <v>0.02070232667876938</v>
+        <v>0.0002705036997973136</v>
       </c>
       <c r="T26">
-        <v>0.01789854783548687</v>
+        <v>0.0002314284959327999</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>24.068887</v>
+        <v>0.2840073333333333</v>
       </c>
       <c r="H27">
-        <v>72.206661</v>
+        <v>0.8520220000000001</v>
       </c>
       <c r="I27">
-        <v>0.06676742198768909</v>
+        <v>0.0009131122893456384</v>
       </c>
       <c r="J27">
-        <v>0.07294483361115629</v>
+        <v>0.0009830634403886853</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>20.888139</v>
       </c>
       <c r="O27">
-        <v>0.1825707950518889</v>
+        <v>0.1884977962653428</v>
       </c>
       <c r="P27">
-        <v>0.2167161490626586</v>
+        <v>0.2246900300217573</v>
       </c>
       <c r="Q27">
-        <v>167.584752410431</v>
+        <v>1.977461551895334</v>
       </c>
       <c r="R27">
-        <v>1508.262771693879</v>
+        <v>17.79715396705801</v>
       </c>
       <c r="S27">
-        <v>0.01218978131585737</v>
+        <v>0.0001721196542844549</v>
       </c>
       <c r="T27">
-        <v>0.01580832343422617</v>
+        <v>0.0002208845539342257</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>24.068887</v>
+        <v>0.2840073333333333</v>
       </c>
       <c r="H28">
-        <v>72.206661</v>
+        <v>0.8520220000000001</v>
       </c>
       <c r="I28">
-        <v>0.06676742198768909</v>
+        <v>0.0009131122893456384</v>
       </c>
       <c r="J28">
-        <v>0.07294483361115629</v>
+        <v>0.0009830634403886853</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.740687</v>
+        <v>3.908275666666666</v>
       </c>
       <c r="N28">
-        <v>11.222061</v>
+        <v>11.724827</v>
       </c>
       <c r="O28">
-        <v>0.09808535834096063</v>
+        <v>0.1058066518559834</v>
       </c>
       <c r="P28">
-        <v>0.1164297999197653</v>
+        <v>0.1261218977253029</v>
       </c>
       <c r="Q28">
-        <v>90.034172705369</v>
+        <v>1.109978950021556</v>
       </c>
       <c r="R28">
-        <v>810.307554348321</v>
+        <v>9.989810550194001</v>
       </c>
       <c r="S28">
-        <v>0.006548906511164619</v>
+        <v>9.661335410421396E-05</v>
       </c>
       <c r="T28">
-        <v>0.008492952382527501</v>
+        <v>0.0001239858266861862</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>24.068887</v>
+        <v>0.2840073333333333</v>
       </c>
       <c r="H29">
-        <v>72.206661</v>
+        <v>0.8520220000000001</v>
       </c>
       <c r="I29">
-        <v>0.06676742198768909</v>
+        <v>0.0009131122893456384</v>
       </c>
       <c r="J29">
-        <v>0.07294483361115629</v>
+        <v>0.0009830634403886853</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.201375000000001</v>
+        <v>6.906841</v>
       </c>
       <c r="N29">
-        <v>12.40275</v>
+        <v>13.813682</v>
       </c>
       <c r="O29">
-        <v>0.1626075876120282</v>
+        <v>0.1869852035629095</v>
       </c>
       <c r="P29">
-        <v>0.1286795447783495</v>
+        <v>0.1485913428329354</v>
       </c>
       <c r="Q29">
-        <v>149.260194119625</v>
+        <v>1.961593494167333</v>
       </c>
       <c r="R29">
-        <v>895.56116471775</v>
+        <v>11.769560965004</v>
       </c>
       <c r="S29">
-        <v>0.01085688942049241</v>
+        <v>0.0001707384872990885</v>
       </c>
       <c r="T29">
-        <v>0.009386507983016041</v>
+        <v>0.0001460747166973201</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>24.068887</v>
+        <v>0.2840073333333333</v>
       </c>
       <c r="H30">
-        <v>72.206661</v>
+        <v>0.8520220000000001</v>
       </c>
       <c r="I30">
-        <v>0.06676742198768909</v>
+        <v>0.0009131122893456384</v>
       </c>
       <c r="J30">
-        <v>0.07294483361115629</v>
+        <v>0.0009830634403886853</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.770838333333334</v>
+        <v>3.706344</v>
       </c>
       <c r="N30">
-        <v>20.312515</v>
+        <v>11.119032</v>
       </c>
       <c r="O30">
-        <v>0.1775396081505116</v>
+        <v>0.1003398641020067</v>
       </c>
       <c r="P30">
-        <v>0.2107440030237968</v>
+        <v>0.1196054676720066</v>
       </c>
       <c r="Q30">
-        <v>162.9665427402684</v>
+        <v>1.052628875856</v>
       </c>
       <c r="R30">
-        <v>1466.698884662415</v>
+        <v>9.473659882704002</v>
       </c>
       <c r="S30">
-        <v>0.01185386193691417</v>
+        <v>9.16215630228136E-05</v>
       </c>
       <c r="T30">
-        <v>0.01537268623511988</v>
+        <v>0.0001175797625389405</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>24.068887</v>
+        <v>0.2840073333333333</v>
       </c>
       <c r="H31">
-        <v>72.206661</v>
+        <v>0.8520220000000001</v>
       </c>
       <c r="I31">
-        <v>0.06676742198768909</v>
+        <v>0.0009131122893456384</v>
       </c>
       <c r="J31">
-        <v>0.07294483361115629</v>
+        <v>0.0009830634403886853</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.636428666666667</v>
+        <v>4.511109666666667</v>
       </c>
       <c r="N31">
-        <v>7.909286000000001</v>
+        <v>13.533329</v>
       </c>
       <c r="O31">
-        <v>0.06913036308848644</v>
+        <v>0.1221268535523368</v>
       </c>
       <c r="P31">
-        <v>0.08205948858130438</v>
+        <v>0.1455756350196788</v>
       </c>
       <c r="Q31">
-        <v>63.45590366156067</v>
+        <v>1.281188226804222</v>
       </c>
       <c r="R31">
-        <v>571.103132954046</v>
+        <v>11.530694041238</v>
       </c>
       <c r="S31">
-        <v>0.00461565612449114</v>
+        <v>0.0001115155308377538</v>
       </c>
       <c r="T31">
-        <v>0.005985815740779827</v>
+        <v>0.0001431100845992131</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.3652469999999999</v>
+        <v>0.044267</v>
       </c>
       <c r="H32">
-        <v>1.095741</v>
+        <v>0.132801</v>
       </c>
       <c r="I32">
-        <v>0.001013200177421477</v>
+        <v>0.0001423228803216233</v>
       </c>
       <c r="J32">
-        <v>0.001106942819664823</v>
+        <v>0.0001532258649976853</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.825016</v>
+        <v>10.942618</v>
       </c>
       <c r="N32">
-        <v>23.650032</v>
+        <v>21.885236</v>
       </c>
       <c r="O32">
-        <v>0.3100662877561242</v>
+        <v>0.2962436306614207</v>
       </c>
       <c r="P32">
-        <v>0.2453710146341254</v>
+        <v>0.2354156267283191</v>
       </c>
       <c r="Q32">
-        <v>4.319051618951999</v>
+        <v>0.484396871006</v>
       </c>
       <c r="R32">
-        <v>25.914309713712</v>
+        <v>2.906381226036</v>
       </c>
       <c r="S32">
-        <v>0.0003141592177669237</v>
+        <v>4.216224679266855E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002716116828031173</v>
+        <v>3.607176303941888E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.3652469999999999</v>
+        <v>0.044267</v>
       </c>
       <c r="H33">
-        <v>1.095741</v>
+        <v>0.132801</v>
       </c>
       <c r="I33">
-        <v>0.001013200177421477</v>
+        <v>0.0001423228803216233</v>
       </c>
       <c r="J33">
-        <v>0.001106942819664823</v>
+        <v>0.0001532258649976853</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>20.888139</v>
       </c>
       <c r="O33">
-        <v>0.1825707950518889</v>
+        <v>0.1884977962653428</v>
       </c>
       <c r="P33">
-        <v>0.2167161490626586</v>
+        <v>0.2246900300217573</v>
       </c>
       <c r="Q33">
-        <v>2.543110035111</v>
+        <v>0.3082184163710001</v>
       </c>
       <c r="R33">
-        <v>22.887990315999</v>
+        <v>2.773965747339</v>
       </c>
       <c r="S33">
-        <v>0.0001849807619385539</v>
+        <v>2.682754929876211E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002398923851103214</v>
+        <v>3.442832420643964E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.3652469999999999</v>
+        <v>0.044267</v>
       </c>
       <c r="H34">
-        <v>1.095741</v>
+        <v>0.132801</v>
       </c>
       <c r="I34">
-        <v>0.001013200177421477</v>
+        <v>0.0001423228803216233</v>
       </c>
       <c r="J34">
-        <v>0.001106942819664823</v>
+        <v>0.0001532258649976853</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.740687</v>
+        <v>3.908275666666666</v>
       </c>
       <c r="N34">
-        <v>11.222061</v>
+        <v>11.724827</v>
       </c>
       <c r="O34">
-        <v>0.09808535834096063</v>
+        <v>0.1058066518559834</v>
       </c>
       <c r="P34">
-        <v>0.1164297999197653</v>
+        <v>0.1261218977253029</v>
       </c>
       <c r="Q34">
-        <v>1.366274704689</v>
+        <v>0.1730076389363333</v>
       </c>
       <c r="R34">
-        <v>12.296472342201</v>
+        <v>1.557068750427</v>
       </c>
       <c r="S34">
-        <v>9.938010247351043E-05</v>
+        <v>1.505870744933079E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001288811310161962</v>
+        <v>1.932513687410913E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.3652469999999999</v>
+        <v>0.044267</v>
       </c>
       <c r="H35">
-        <v>1.095741</v>
+        <v>0.132801</v>
       </c>
       <c r="I35">
-        <v>0.001013200177421477</v>
+        <v>0.0001423228803216233</v>
       </c>
       <c r="J35">
-        <v>0.001106942819664823</v>
+        <v>0.0001532258649976853</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.201375000000001</v>
+        <v>6.906841</v>
       </c>
       <c r="N35">
-        <v>12.40275</v>
+        <v>13.813682</v>
       </c>
       <c r="O35">
-        <v>0.1626075876120282</v>
+        <v>0.1869852035629095</v>
       </c>
       <c r="P35">
-        <v>0.1286795447783495</v>
+        <v>0.1485913428329354</v>
       </c>
       <c r="Q35">
-        <v>2.265033614625</v>
+        <v>0.305745130547</v>
       </c>
       <c r="R35">
-        <v>13.59020168775</v>
+        <v>1.834470783282</v>
       </c>
       <c r="S35">
-        <v>0.0001647540366185853</v>
+        <v>2.661227274859834E-05</v>
       </c>
       <c r="T35">
-        <v>0.000142440898130132</v>
+        <v>2.276803703674413E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.3652469999999999</v>
+        <v>0.044267</v>
       </c>
       <c r="H36">
-        <v>1.095741</v>
+        <v>0.132801</v>
       </c>
       <c r="I36">
-        <v>0.001013200177421477</v>
+        <v>0.0001423228803216233</v>
       </c>
       <c r="J36">
-        <v>0.001106942819664823</v>
+        <v>0.0001532258649976853</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.770838333333334</v>
+        <v>3.706344</v>
       </c>
       <c r="N36">
-        <v>20.312515</v>
+        <v>11.119032</v>
       </c>
       <c r="O36">
-        <v>0.1775396081505116</v>
+        <v>0.1003398641020067</v>
       </c>
       <c r="P36">
-        <v>0.2107440030237968</v>
+        <v>0.1196054676720066</v>
       </c>
       <c r="Q36">
-        <v>2.473028388735</v>
+        <v>0.164068729848</v>
       </c>
       <c r="R36">
-        <v>22.257255498615</v>
+        <v>1.476618568632</v>
       </c>
       <c r="S36">
-        <v>0.0001798831624774378</v>
+        <v>1.428065847007785E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002332815609346136</v>
+        <v>1.832665124249589E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.3652469999999999</v>
+        <v>0.044267</v>
       </c>
       <c r="H37">
-        <v>1.095741</v>
+        <v>0.132801</v>
       </c>
       <c r="I37">
-        <v>0.001013200177421477</v>
+        <v>0.0001423228803216233</v>
       </c>
       <c r="J37">
-        <v>0.001106942819664823</v>
+        <v>0.0001532258649976853</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.636428666666667</v>
+        <v>4.511109666666667</v>
       </c>
       <c r="N37">
-        <v>7.909286000000001</v>
+        <v>13.533329</v>
       </c>
       <c r="O37">
-        <v>0.06913036308848644</v>
+        <v>0.1221268535523368</v>
       </c>
       <c r="P37">
-        <v>0.08205948858130438</v>
+        <v>0.1455756350196788</v>
       </c>
       <c r="Q37">
-        <v>0.9629476612139999</v>
+        <v>0.1996932916143334</v>
       </c>
       <c r="R37">
-        <v>8.666528950925999</v>
+        <v>1.797239624529</v>
       </c>
       <c r="S37">
-        <v>7.004289614646556E-05</v>
+        <v>1.738144556218565E-05</v>
       </c>
       <c r="T37">
-        <v>9.083516167044241E-05</v>
+        <v>2.230595259847761E-05</v>
       </c>
     </row>
   </sheetData>
